--- a/output/Q4C.xlsx
+++ b/output/Q4C.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,54 +404,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>15.88308552</v>
-      </c>
-      <c r="B2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>15.79568854</v>
-      </c>
-      <c r="B3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>14.57167405796351</v>
-      </c>
-      <c r="B4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11.59888216306275</v>
-      </c>
-      <c r="B5">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13.02623719676334</v>
-      </c>
-      <c r="B6">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>11.793489125897173</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/output/Q4C.xlsx
+++ b/output/Q4C.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,6 +404,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15.88308552</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15.79568854</v>
+      </c>
+      <c r="B3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14.57167405796351</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11.59888216306275</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13.02623719676334</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11.793489125897173</v>
+      </c>
+      <c r="B7">
+        <v>2016</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/output/Q4C.xlsx
+++ b/output/Q4C.xlsx
@@ -422,7 +422,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7.816625850874999</v>
+        <v>7.816625850875</v>
       </c>
       <c r="B4">
         <v>2015</v>
@@ -430,7 +430,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7.656665255952378</v>
+        <v>7.656665255952379</v>
       </c>
       <c r="B5">
         <v>2016</v>
